--- a/Sax_details.xlsx
+++ b/Sax_details.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tim/Documents/GitHub/DIY-Projects/MIDI_Sax/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim\Documents\GitHub\MIDI-Wind-Controller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C0339B-F05F-824E-A812-D35DDDC29C4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB306B5-28CF-4B93-A3EC-2EF50BE31349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="460" windowWidth="22840" windowHeight="15540" activeTab="2" xr2:uid="{37DECD7E-2A26-408F-B389-C3EB14E31A56}"/>
+    <workbookView xWindow="28680" yWindow="2190" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{37DECD7E-2A26-408F-B389-C3EB14E31A56}"/>
   </bookViews>
   <sheets>
     <sheet name="Leonardo" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="56">
   <si>
     <t>C#</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>MP3V-5004G-C7U</t>
+  </si>
+  <si>
+    <t>VDD</t>
   </si>
 </sst>
 </file>
@@ -302,7 +305,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2554,13 +2557,13 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -2601,7 +2604,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2642,7 +2645,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2686,7 +2689,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2727,7 +2730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2768,7 +2771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2809,7 +2812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2850,7 +2853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2891,7 +2894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2932,7 +2935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2976,7 +2979,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -3029,12 +3032,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F14">
         <v>0.5</v>
       </c>
@@ -3045,7 +3048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -3065,7 +3068,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>-1024</v>
       </c>
@@ -3086,7 +3089,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>-512</v>
       </c>
@@ -3107,7 +3110,7 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>-256</v>
       </c>
@@ -3128,7 +3131,7 @@
         <v>-6.25E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>-128</v>
       </c>
@@ -3149,7 +3152,7 @@
         <v>-1.5625E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>-64</v>
       </c>
@@ -3170,7 +3173,7 @@
         <v>-3.90625E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>-32</v>
       </c>
@@ -3191,7 +3194,7 @@
         <v>-9.765625E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>-16</v>
       </c>
@@ -3212,7 +3215,7 @@
         <v>-2.44140625E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>-8</v>
       </c>
@@ -3233,7 +3236,7 @@
         <v>-6.103515625E-5</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>-4</v>
       </c>
@@ -3254,7 +3257,7 @@
         <v>-1.52587890625E-5</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-2</v>
       </c>
@@ -3278,7 +3281,7 @@
         <v>-3.814697265625E-6</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-1</v>
       </c>
@@ -3302,7 +3305,7 @@
         <v>-9.5367431640625E-7</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>0</v>
       </c>
@@ -3323,7 +3326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -3348,7 +3351,7 @@
         <v>9.5367431640625E-7</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -3373,7 +3376,7 @@
         <v>3.814697265625E-6</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -3398,7 +3401,7 @@
         <v>1.52587890625E-5</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
@@ -3423,7 +3426,7 @@
         <v>6.103515625E-5</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4</v>
       </c>
@@ -3448,7 +3451,7 @@
         <v>2.44140625E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>5</v>
       </c>
@@ -3473,7 +3476,7 @@
         <v>9.765625E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>6</v>
       </c>
@@ -3498,7 +3501,7 @@
         <v>3.90625E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>7</v>
       </c>
@@ -3523,7 +3526,7 @@
         <v>1.5625E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>8</v>
       </c>
@@ -3548,7 +3551,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>9</v>
       </c>
@@ -3573,7 +3576,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>10</v>
       </c>
@@ -3616,15 +3619,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2919528-146A-CE47-841B-7E3C7B7F9F62}">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -3675,7 +3678,7 @@
       </c>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -3726,7 +3729,7 @@
       </c>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3778,8 +3781,11 @@
       <c r="Q3" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3829,8 +3835,11 @@
         <v>1</v>
       </c>
       <c r="Q4" s="1"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -3880,8 +3889,11 @@
         <v>1</v>
       </c>
       <c r="Q5" s="1"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -3927,10 +3939,15 @@
       <c r="O6" s="2">
         <v>0</v>
       </c>
-      <c r="P6" s="2"/>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
       <c r="Q6" s="1"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -3980,8 +3997,11 @@
         <v>1</v>
       </c>
       <c r="Q7" s="1"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -4031,8 +4051,11 @@
         <v>1</v>
       </c>
       <c r="Q8" s="1"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -4082,8 +4105,11 @@
         <v>1</v>
       </c>
       <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -4135,8 +4161,11 @@
       <c r="Q10" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -4186,8 +4215,11 @@
         <v>0</v>
       </c>
       <c r="Q11" s="1"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -4237,8 +4269,11 @@
         <v>1</v>
       </c>
       <c r="Q12" s="1"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -4247,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" ref="C13:P13" si="0">C3*1+C4*2+C5*4+C6*8+C7*16+C8*32+C9*64+C10*128+C11*256+C12*512</f>
+        <f t="shared" ref="C13:R13" si="0">C3*1+C4*2+C5*4+C6*8+C7*16+C8*32+C9*64+C10*128+C11*256+C12*512</f>
         <v>2</v>
       </c>
       <c r="D13" s="1">
@@ -4303,13 +4338,23 @@
         <v>631</v>
       </c>
       <c r="Q13" s="1"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="1">
+        <f t="shared" si="0"/>
+        <v>512</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
@@ -4332,7 +4377,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1000</v>
       </c>
@@ -4340,16 +4385,16 @@
         <v>10000</v>
       </c>
       <c r="C18">
-        <f>3.3*(B18/(A18+B18))</f>
-        <v>2.9999999999999996</v>
+        <f>D16*(B18/(A18+B18))</f>
+        <v>4.545454545454545</v>
       </c>
       <c r="D18">
-        <f>1024*C18/3.3</f>
-        <v>930.90909090909088</v>
+        <f>1024*C18/D16</f>
+        <v>930.90909090909076</v>
       </c>
       <c r="E18">
         <f>(D18+D19)/2</f>
-        <v>721.4545454545455</v>
+        <v>721.45454545454538</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>32</v>
@@ -4358,7 +4403,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>10000</v>
       </c>
@@ -4367,15 +4412,15 @@
         <v>10000</v>
       </c>
       <c r="C19">
-        <f t="shared" ref="C19:C20" si="1">3.3*(B19/(A19+B19))</f>
-        <v>1.65</v>
+        <f>D16*(B19/(A19+B19))</f>
+        <v>2.5</v>
       </c>
       <c r="D19">
-        <f t="shared" ref="D19:D20" si="2">1024*C19/3.3</f>
+        <f>1024*C19/D16</f>
         <v>512</v>
       </c>
       <c r="E19">
-        <f t="shared" ref="E19:E21" si="3">(D19+D20)/2</f>
+        <f>(D19+D20)/2</f>
         <v>302.54545454545456</v>
       </c>
       <c r="F19" s="4" t="s">
@@ -4385,7 +4430,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>100000</v>
       </c>
@@ -4394,15 +4439,15 @@
         <v>10000</v>
       </c>
       <c r="C20">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
+        <f>D16*(B20/(A20+B20))</f>
+        <v>0.45454545454545459</v>
       </c>
       <c r="D20">
-        <f t="shared" si="2"/>
+        <f>1024*C20/D16</f>
         <v>93.090909090909093</v>
       </c>
       <c r="E20">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="E19:E21" si="1">(D20+D21)/2</f>
         <v>46.545454545454547</v>
       </c>
       <c r="F20" s="4" t="s">
@@ -4412,12 +4457,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F21" s="4" t="s">
@@ -4428,7 +4473,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B3:P12">
+  <conditionalFormatting sqref="B3:P12 R3:R12">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
@@ -4444,18 +4489,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{250F6131-CF93-3347-A38E-D68F81AD74C7}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -4481,7 +4526,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -4508,7 +4553,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>47</v>
       </c>

--- a/Sax_details.xlsx
+++ b/Sax_details.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim\Documents\GitHub\MIDI-Wind-Controller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB306B5-28CF-4B93-A3EC-2EF50BE31349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93BB6B9-2D1E-4099-9B9C-DA6938097EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2190" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{37DECD7E-2A26-408F-B389-C3EB14E31A56}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{37DECD7E-2A26-408F-B389-C3EB14E31A56}"/>
   </bookViews>
   <sheets>
     <sheet name="Leonardo" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="61">
   <si>
     <t>C#</t>
   </si>
@@ -140,24 +140,9 @@
     <t>+12</t>
   </si>
   <si>
-    <t>-12</t>
-  </si>
-  <si>
     <t>+0</t>
   </si>
   <si>
-    <t>Home Octave With no buttons pressed</t>
-  </si>
-  <si>
-    <t>+1 Octave</t>
-  </si>
-  <si>
-    <t>+2 Octaves</t>
-  </si>
-  <si>
-    <t>-1 Octave</t>
-  </si>
-  <si>
     <t>Octave Adjust</t>
   </si>
   <si>
@@ -204,6 +189,36 @@
   </si>
   <si>
     <t>VDD</t>
+  </si>
+  <si>
+    <t>Octave Up</t>
+  </si>
+  <si>
+    <t>Octave Down</t>
+  </si>
+  <si>
+    <t>Input Pin</t>
+  </si>
+  <si>
+    <t>Arduino</t>
+  </si>
+  <si>
+    <t>Doppler</t>
+  </si>
+  <si>
+    <t>+36</t>
+  </si>
+  <si>
+    <t>+3 Octaves</t>
+  </si>
+  <si>
+    <t>+2 Octave</t>
+  </si>
+  <si>
+    <t>0 Octave</t>
+  </si>
+  <si>
+    <t>+1 Home Octave With no buttons pressed</t>
   </si>
 </sst>
 </file>
@@ -268,7 +283,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -3619,66 +3654,77 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2919528-146A-CE47-841B-7E3C7B7F9F62}">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="1">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="H1" s="1">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="I1" s="1">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="J1" s="1">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="K1" s="1">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="L1" s="1">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="M1" s="1">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="N1" s="1">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="O1" s="1">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="P1" s="1">
-        <v>60</v>
-      </c>
-      <c r="Q1" s="1"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>36</v>
+      </c>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="V1" t="s">
+        <v>54</v>
+      </c>
+      <c r="W1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -3725,11 +3771,26 @@
         <v>11</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="1"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T2" s="1"/>
+      <c r="V2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3778,14 +3839,29 @@
       <c r="P3" s="3">
         <v>1</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" s="3">
+        <v>1</v>
+      </c>
+      <c r="R3" s="3">
+        <v>0</v>
+      </c>
+      <c r="S3" s="3">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U3" s="3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>2</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3834,12 +3910,27 @@
       <c r="P4" s="3">
         <v>1</v>
       </c>
-      <c r="Q4" s="1"/>
+      <c r="Q4" s="3">
+        <v>1</v>
+      </c>
       <c r="R4" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S4" s="3">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1"/>
+      <c r="U4" s="3">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>3</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -3888,12 +3979,27 @@
       <c r="P5" s="3">
         <v>1</v>
       </c>
-      <c r="Q5" s="1"/>
+      <c r="Q5" s="3">
+        <v>1</v>
+      </c>
       <c r="R5" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S5" s="3">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1"/>
+      <c r="U5" s="3">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>4</v>
+      </c>
+      <c r="W5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -3940,14 +4046,29 @@
         <v>0</v>
       </c>
       <c r="P6" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
       <c r="R6" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S6" s="2">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1"/>
+      <c r="U6" s="2">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>5</v>
+      </c>
+      <c r="W6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -3996,12 +4117,27 @@
       <c r="P7" s="3">
         <v>1</v>
       </c>
-      <c r="Q7" s="1"/>
+      <c r="Q7" s="3">
+        <v>1</v>
+      </c>
       <c r="R7" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S7" s="3">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1"/>
+      <c r="U7" s="3">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>6</v>
+      </c>
+      <c r="W7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -4050,12 +4186,27 @@
       <c r="P8" s="3">
         <v>1</v>
       </c>
-      <c r="Q8" s="1"/>
+      <c r="Q8" s="3">
+        <v>1</v>
+      </c>
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1"/>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>7</v>
+      </c>
+      <c r="W8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -4104,12 +4255,27 @@
       <c r="P9" s="3">
         <v>1</v>
       </c>
-      <c r="Q9" s="1"/>
+      <c r="Q9" s="3">
+        <v>1</v>
+      </c>
       <c r="R9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1"/>
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>8</v>
+      </c>
+      <c r="W9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -4158,14 +4324,29 @@
       <c r="P10" s="2">
         <v>0</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="Q10" s="2">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2">
+        <v>1</v>
+      </c>
+      <c r="S10" s="2">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U10" s="2">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>9</v>
+      </c>
+      <c r="W10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -4214,12 +4395,27 @@
       <c r="P11" s="2">
         <v>0</v>
       </c>
-      <c r="Q11" s="1"/>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
       <c r="R11" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S11" s="2">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1"/>
+      <c r="U11" s="2">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>10</v>
+      </c>
+      <c r="W11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -4268,12 +4464,27 @@
       <c r="P12" s="2">
         <v>1</v>
       </c>
-      <c r="Q12" s="1"/>
+      <c r="Q12" s="2">
+        <v>1</v>
+      </c>
       <c r="R12" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="S12" s="2">
+        <v>1</v>
+      </c>
+      <c r="T12" s="1"/>
+      <c r="U12" s="2">
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <v>11</v>
+      </c>
+      <c r="W12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -4282,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" ref="C13:R13" si="0">C3*1+C4*2+C5*4+C6*8+C7*16+C8*32+C9*64+C10*128+C11*256+C12*512</f>
+        <f t="shared" ref="C13:U13" si="0">C3*1+C4*2+C5*4+C6*8+C7*16+C8*32+C9*64+C10*128+C11*256+C12*512</f>
         <v>2</v>
       </c>
       <c r="D13" s="1">
@@ -4335,20 +4546,32 @@
       </c>
       <c r="P13" s="1">
         <f t="shared" si="0"/>
+        <v>639</v>
+      </c>
+      <c r="Q13" s="1">
+        <f t="shared" si="0"/>
         <v>631</v>
       </c>
-      <c r="Q13" s="1"/>
       <c r="R13" s="1">
         <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="S13" s="1">
+        <f t="shared" si="0"/>
         <v>512</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T13" s="1"/>
+      <c r="U13" s="1">
+        <f t="shared" si="0"/>
+        <v>512</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D16">
         <v>5</v>
@@ -4374,7 +4597,7 @@
         <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -4385,22 +4608,21 @@
         <v>10000</v>
       </c>
       <c r="C18">
-        <f>D16*(B18/(A18+B18))</f>
-        <v>4.545454545454545</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D18">
         <f>1024*C18/D16</f>
-        <v>930.90909090909076</v>
+        <v>901.12000000000012</v>
       </c>
       <c r="E18">
         <f>(D18+D19)/2</f>
-        <v>721.45454545454538</v>
+        <v>706.56000000000006</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -4421,13 +4643,13 @@
       </c>
       <c r="E19">
         <f>(D19+D20)/2</f>
-        <v>302.54545454545456</v>
+        <v>307.2</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -4439,45 +4661,44 @@
         <v>10000</v>
       </c>
       <c r="C20">
-        <f>D16*(B20/(A20+B20))</f>
-        <v>0.45454545454545459</v>
+        <v>0.5</v>
       </c>
       <c r="D20">
         <f>1024*C20/D16</f>
-        <v>93.090909090909093</v>
+        <v>102.4</v>
       </c>
       <c r="E20">
-        <f t="shared" ref="E19:E21" si="1">(D20+D21)/2</f>
-        <v>46.545454545454547</v>
+        <f t="shared" ref="E20:E21" si="1">(D20+D21)/2</f>
+        <v>68.7</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>34</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D21">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B3:P12 R3:R12">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="B3:S12 U3:U12">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4502,39 +4723,39 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s">
         <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D2">
         <v>21.36</v>
@@ -4547,21 +4768,21 @@
         <v>21.36</v>
       </c>
       <c r="G2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
         <v>49</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -4571,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Sax_details.xlsx
+++ b/Sax_details.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim\Documents\GitHub\MIDI-Wind-Controller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93BB6B9-2D1E-4099-9B9C-DA6938097EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6370077D-559F-4FA3-99EE-3360BEB001F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{37DECD7E-2A26-408F-B389-C3EB14E31A56}"/>
+    <workbookView xWindow="21375" yWindow="4275" windowWidth="14040" windowHeight="12735" activeTab="1" xr2:uid="{37DECD7E-2A26-408F-B389-C3EB14E31A56}"/>
   </bookViews>
   <sheets>
     <sheet name="Leonardo" sheetId="1" r:id="rId1"/>
@@ -283,27 +283,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -3656,8 +3636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2919528-146A-CE47-841B-7E3C7B7F9F62}">
   <dimension ref="A1:W21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4574,7 +4554,7 @@
         <v>50</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -4608,15 +4588,15 @@
         <v>10000</v>
       </c>
       <c r="C18">
-        <v>4.4000000000000004</v>
+        <v>3.02</v>
       </c>
       <c r="D18">
         <f>1024*C18/D16</f>
-        <v>901.12000000000012</v>
+        <v>937.11515151515152</v>
       </c>
       <c r="E18">
         <f>(D18+D19)/2</f>
-        <v>706.56000000000006</v>
+        <v>726.10909090909092</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>56</v>
@@ -4634,16 +4614,15 @@
         <v>10000</v>
       </c>
       <c r="C19">
-        <f>D16*(B19/(A19+B19))</f>
-        <v>2.5</v>
+        <v>1.66</v>
       </c>
       <c r="D19">
         <f>1024*C19/D16</f>
-        <v>512</v>
+        <v>515.10303030303032</v>
       </c>
       <c r="E19">
         <f>(D19+D20)/2</f>
-        <v>307.2</v>
+        <v>304.09696969696972</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>32</v>
@@ -4661,15 +4640,15 @@
         <v>10000</v>
       </c>
       <c r="C20">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D20">
         <f>1024*C20/D16</f>
-        <v>102.4</v>
+        <v>93.090909090909093</v>
       </c>
       <c r="E20">
         <f t="shared" ref="E20:E21" si="1">(D20+D21)/2</f>
-        <v>68.7</v>
+        <v>64.045454545454547</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>34</v>
@@ -4695,10 +4674,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:S12 U3:U12">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Sax_details.xlsx
+++ b/Sax_details.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim\Documents\GitHub\MIDI-Wind-Controller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6370077D-559F-4FA3-99EE-3360BEB001F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD5B65A-E9F6-4998-8176-73BACA9EB287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21375" yWindow="4275" windowWidth="14040" windowHeight="12735" activeTab="1" xr2:uid="{37DECD7E-2A26-408F-B389-C3EB14E31A56}"/>
+    <workbookView xWindow="7170" yWindow="345" windowWidth="20535" windowHeight="16290" activeTab="1" xr2:uid="{37DECD7E-2A26-408F-B389-C3EB14E31A56}"/>
   </bookViews>
   <sheets>
     <sheet name="Leonardo" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="69">
   <si>
     <t>C#</t>
   </si>
@@ -219,13 +219,37 @@
   </si>
   <si>
     <t>+1 Home Octave With no buttons pressed</t>
+  </si>
+  <si>
+    <t>MODES</t>
+  </si>
+  <si>
+    <t>Semitone Up</t>
+  </si>
+  <si>
+    <t>Semitone Down</t>
+  </si>
+  <si>
+    <t>G# Held down alternative fingerings</t>
+  </si>
+  <si>
+    <t>Enter Menu Mode</t>
+  </si>
+  <si>
+    <t>Leave Menu Mode</t>
+  </si>
+  <si>
+    <t>Concert</t>
+  </si>
+  <si>
+    <t>Eb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,6 +258,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -273,17 +313,179 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -3634,16 +3836,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2919528-146A-CE47-841B-7E3C7B7F9F62}">
-  <dimension ref="A1:W21"/>
+  <dimension ref="A1:W50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="1">
@@ -3756,12 +3958,6 @@
       <c r="Q2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="T2" s="1"/>
       <c r="V2" s="1" t="s">
         <v>53</v>
@@ -3822,12 +4018,6 @@
       <c r="Q3" s="3">
         <v>1</v>
       </c>
-      <c r="R3" s="3">
-        <v>0</v>
-      </c>
-      <c r="S3" s="3">
-        <v>0</v>
-      </c>
       <c r="T3" s="1" t="s">
         <v>14</v>
       </c>
@@ -3893,12 +4083,6 @@
       <c r="Q4" s="3">
         <v>1</v>
       </c>
-      <c r="R4" s="3">
-        <v>0</v>
-      </c>
-      <c r="S4" s="3">
-        <v>0</v>
-      </c>
       <c r="T4" s="1"/>
       <c r="U4" s="3">
         <v>0</v>
@@ -3962,12 +4146,6 @@
       <c r="Q5" s="3">
         <v>1</v>
       </c>
-      <c r="R5" s="3">
-        <v>0</v>
-      </c>
-      <c r="S5" s="3">
-        <v>0</v>
-      </c>
       <c r="T5" s="1"/>
       <c r="U5" s="3">
         <v>0</v>
@@ -4031,12 +4209,6 @@
       <c r="Q6" s="2">
         <v>0</v>
       </c>
-      <c r="R6" s="2">
-        <v>0</v>
-      </c>
-      <c r="S6" s="2">
-        <v>0</v>
-      </c>
       <c r="T6" s="1"/>
       <c r="U6" s="2">
         <v>0</v>
@@ -4100,12 +4272,6 @@
       <c r="Q7" s="3">
         <v>1</v>
       </c>
-      <c r="R7" s="3">
-        <v>0</v>
-      </c>
-      <c r="S7" s="3">
-        <v>0</v>
-      </c>
       <c r="T7" s="1"/>
       <c r="U7" s="3">
         <v>0</v>
@@ -4169,12 +4335,6 @@
       <c r="Q8" s="3">
         <v>1</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
       <c r="T8" s="1"/>
       <c r="U8" s="3">
         <v>0</v>
@@ -4238,12 +4398,6 @@
       <c r="Q9" s="3">
         <v>1</v>
       </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
-      <c r="S9" s="3">
-        <v>0</v>
-      </c>
       <c r="T9" s="1"/>
       <c r="U9" s="3">
         <v>0</v>
@@ -4307,12 +4461,6 @@
       <c r="Q10" s="2">
         <v>0</v>
       </c>
-      <c r="R10" s="2">
-        <v>1</v>
-      </c>
-      <c r="S10" s="2">
-        <v>0</v>
-      </c>
       <c r="T10" s="1" t="s">
         <v>15</v>
       </c>
@@ -4378,12 +4526,6 @@
       <c r="Q11" s="2">
         <v>0</v>
       </c>
-      <c r="R11" s="2">
-        <v>0</v>
-      </c>
-      <c r="S11" s="2">
-        <v>0</v>
-      </c>
       <c r="T11" s="1"/>
       <c r="U11" s="2">
         <v>0</v>
@@ -4445,12 +4587,6 @@
         <v>1</v>
       </c>
       <c r="Q12" s="2">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2">
-        <v>0</v>
-      </c>
-      <c r="S12" s="2">
         <v>1</v>
       </c>
       <c r="T12" s="1"/>
@@ -4531,14 +4667,6 @@
       <c r="Q13" s="1">
         <f t="shared" si="0"/>
         <v>631</v>
-      </c>
-      <c r="R13" s="1">
-        <f t="shared" si="0"/>
-        <v>128</v>
-      </c>
-      <c r="S13" s="1">
-        <f t="shared" si="0"/>
-        <v>512</v>
       </c>
       <c r="T13" s="1"/>
       <c r="U13" s="1">
@@ -4547,7 +4675,7 @@
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C16" t="s">
@@ -4557,7 +4685,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
@@ -4580,7 +4708,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1000</v>
       </c>
@@ -4605,7 +4733,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>10000</v>
       </c>
@@ -4631,7 +4759,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>100000</v>
       </c>
@@ -4657,7 +4785,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D21">
         <v>35</v>
       </c>
@@ -4672,8 +4800,1045 @@
         <v>60</v>
       </c>
     </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="1">
+        <v>49</v>
+      </c>
+      <c r="C24" s="1">
+        <v>48</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1">
+        <v>47</v>
+      </c>
+      <c r="F24" s="1">
+        <v>46</v>
+      </c>
+      <c r="G24" s="1">
+        <v>46</v>
+      </c>
+      <c r="H24" s="1">
+        <v>45</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1">
+        <v>42</v>
+      </c>
+      <c r="L24" s="1">
+        <v>41</v>
+      </c>
+      <c r="M24" s="1">
+        <v>40</v>
+      </c>
+      <c r="N24" s="1">
+        <v>39</v>
+      </c>
+      <c r="O24" s="1">
+        <v>38</v>
+      </c>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1</v>
+      </c>
+      <c r="H26" s="3">
+        <v>1</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3">
+        <v>1</v>
+      </c>
+      <c r="L26" s="3">
+        <v>1</v>
+      </c>
+      <c r="M26" s="3">
+        <v>1</v>
+      </c>
+      <c r="N26" s="3">
+        <v>1</v>
+      </c>
+      <c r="O26" s="3">
+        <v>1</v>
+      </c>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3">
+        <v>1</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3">
+        <v>1</v>
+      </c>
+      <c r="L27" s="3">
+        <v>1</v>
+      </c>
+      <c r="M27" s="3">
+        <v>1</v>
+      </c>
+      <c r="N27" s="3">
+        <v>1</v>
+      </c>
+      <c r="O27" s="3">
+        <v>1</v>
+      </c>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3">
+        <v>1</v>
+      </c>
+      <c r="L28" s="3">
+        <v>1</v>
+      </c>
+      <c r="M28" s="3">
+        <v>1</v>
+      </c>
+      <c r="N28" s="3">
+        <v>1</v>
+      </c>
+      <c r="O28" s="3">
+        <v>1</v>
+      </c>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2">
+        <v>1</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2">
+        <v>1</v>
+      </c>
+      <c r="L29" s="2">
+        <v>1</v>
+      </c>
+      <c r="M29" s="2">
+        <v>1</v>
+      </c>
+      <c r="N29" s="2">
+        <v>1</v>
+      </c>
+      <c r="O29" s="2">
+        <v>1</v>
+      </c>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3">
+        <v>1</v>
+      </c>
+      <c r="M30" s="3">
+        <v>1</v>
+      </c>
+      <c r="N30" s="3">
+        <v>1</v>
+      </c>
+      <c r="O30" s="3">
+        <v>1</v>
+      </c>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="3">
+        <v>1</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>1</v>
+      </c>
+      <c r="N31" s="3">
+        <v>1</v>
+      </c>
+      <c r="O31" s="3">
+        <v>1</v>
+      </c>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0</v>
+      </c>
+      <c r="M32" s="2">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>1</v>
+      </c>
+      <c r="O32" s="3">
+        <v>1</v>
+      </c>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2">
+        <v>0</v>
+      </c>
+      <c r="M33" s="2">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
+        <v>1</v>
+      </c>
+      <c r="O33" s="2">
+        <v>0</v>
+      </c>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="2">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2">
+        <v>0</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0</v>
+      </c>
+      <c r="M34" s="2">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="2">
+        <v>0</v>
+      </c>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2">
+        <v>0</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0</v>
+      </c>
+      <c r="M35" s="2">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="2">
+        <v>0</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="1">
+        <f>B26*1+B27*2+B28*4+B29*8+B30*16+B31*32+B32*64+B33*128+B34*256+B35*512</f>
+        <v>8</v>
+      </c>
+      <c r="C36" s="1">
+        <f t="shared" ref="C36:O36" si="2">C26*1+C27*2+C28*4+C29*8+C30*16+C31*32+C32*64+C33*128+C34*256+C35*512</f>
+        <v>10</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" ref="F36" si="3">F26*1+F27*2+F28*4+F29*8+F30*16+F31*32+F32*64+F33*128+F34*256+F35*512</f>
+        <v>267</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="L36" s="1">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="M36" s="1">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="N36" s="1">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="O36" s="1">
+        <f t="shared" si="2"/>
+        <v>127</v>
+      </c>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0</v>
+      </c>
+      <c r="H40" s="3">
+        <v>0</v>
+      </c>
+      <c r="J40" s="3">
+        <v>1</v>
+      </c>
+      <c r="K40" s="3">
+        <v>0</v>
+      </c>
+      <c r="L40" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
+        <v>1</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0</v>
+      </c>
+      <c r="G43" s="2">
+        <v>1</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0</v>
+      </c>
+      <c r="J43" s="2">
+        <v>0</v>
+      </c>
+      <c r="K43" s="2">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0</v>
+      </c>
+      <c r="C46" s="2">
+        <v>1</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="2">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0</v>
+      </c>
+      <c r="J47" s="2">
+        <v>0</v>
+      </c>
+      <c r="K47" s="2">
+        <v>0</v>
+      </c>
+      <c r="L47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0</v>
+      </c>
+      <c r="G48" s="2">
+        <v>0</v>
+      </c>
+      <c r="H48" s="2">
+        <v>1</v>
+      </c>
+      <c r="J48" s="2">
+        <v>0</v>
+      </c>
+      <c r="K48" s="2">
+        <v>0</v>
+      </c>
+      <c r="L48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="2">
+        <v>1</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0</v>
+      </c>
+      <c r="E49" s="2">
+        <v>1</v>
+      </c>
+      <c r="G49" s="2">
+        <v>0</v>
+      </c>
+      <c r="H49" s="2">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2">
+        <v>0</v>
+      </c>
+      <c r="K49" s="2">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" s="1">
+        <f>B40*1+B41*2+B42*4+B43*8+B44*16+B45*32+B46*64+B47*128+B48*256+B49*512</f>
+        <v>640</v>
+      </c>
+      <c r="C50" s="1">
+        <f>C40*1+C41*2+C42*4+C43*8+C44*16+C45*32+C46*64+C47*128+C48*256+C49*512</f>
+        <v>64</v>
+      </c>
+      <c r="D50" s="1">
+        <f>D40*1+D41*2+D42*4+D43*8+D44*16+D45*32+D46*64+D47*128+D48*256+D49*512</f>
+        <v>128</v>
+      </c>
+      <c r="E50" s="1">
+        <f>E40*1+E41*2+E42*4+E43*8+E44*16+E45*32+E46*64+E47*128+E48*256+E49*512</f>
+        <v>512</v>
+      </c>
+      <c r="G50" s="1">
+        <f>G40*1+G41*2+G42*4+G43*8+G44*16+G45*32+G46*64+G47*128+G48*256+G49*512</f>
+        <v>8</v>
+      </c>
+      <c r="H50" s="1">
+        <f>H40*1+H41*2+H42*4+H43*8+H44*16+H45*32+H46*64+H47*128+H48*256+H49*512</f>
+        <v>256</v>
+      </c>
+      <c r="J50" s="1">
+        <f>J40*1+J41*2+J42*4+J43*8+J44*16+J45*32+J46*64+J47*128+J48*256+J49*512</f>
+        <v>1</v>
+      </c>
+      <c r="K50" s="1">
+        <f>K40*1+K41*2+K42*4+K43*8+K44*16+K45*32+K46*64+K47*128+K48*256+K49*512</f>
+        <v>2</v>
+      </c>
+      <c r="L50" s="1">
+        <f>L40*1+L41*2+L42*4+L43*8+L44*16+L45*32+L46*64+L47*128+L48*256+L49*512</f>
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B3:S12 U3:U12">
+  <conditionalFormatting sqref="U3:U12 B3:Q12 D40:E49">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:E35 G26:Q35">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40:B49">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G40:H49">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J40:J49">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40:C49">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26:F35">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K40:K49">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L40:L49">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
@@ -4682,6 +5847,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Sax_details.xlsx
+++ b/Sax_details.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim\Documents\GitHub\MIDI-Wind-Controller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD5B65A-E9F6-4998-8176-73BACA9EB287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7219C43-6C99-4AA3-9CCA-F1088228A867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7170" yWindow="345" windowWidth="20535" windowHeight="16290" activeTab="1" xr2:uid="{37DECD7E-2A26-408F-B389-C3EB14E31A56}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{37DECD7E-2A26-408F-B389-C3EB14E31A56}"/>
   </bookViews>
   <sheets>
     <sheet name="Leonardo" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="71">
   <si>
     <t>C#</t>
   </si>
@@ -243,6 +243,12 @@
   </si>
   <si>
     <t>Eb</t>
+  </si>
+  <si>
+    <t>MP3V5004GP</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com.au/en/products/detail/nxp-usa-inc/MP3V5004GP/2186181</t>
   </si>
 </sst>
 </file>
@@ -325,87 +331,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -522,7 +448,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2472,9 +2398,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2512,7 +2438,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2618,7 +2544,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2760,7 +2686,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3838,7 +3764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2919528-146A-CE47-841B-7E3C7B7F9F62}">
   <dimension ref="A1:W50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
@@ -5774,55 +5700,23 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="U3:U12 B3:Q12 D40:E49">
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="lessThan">
+  <conditionalFormatting sqref="B40:E49">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26:E35 G26:Q35">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="lessThan">
+  <conditionalFormatting sqref="B3:Q12 U3:U12">
+    <cfRule type="cellIs" dxfId="7" priority="19" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B40:B49">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G40:H49">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J40:J49">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C40:C49">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F26:F35">
+  <conditionalFormatting sqref="B26:Q35">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
       <formula>1</formula>
     </cfRule>
@@ -5830,15 +5724,15 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K40:K49">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+  <conditionalFormatting sqref="G40:H49">
+    <cfRule type="cellIs" dxfId="3" priority="11" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L40:L49">
+  <conditionalFormatting sqref="J40:L49">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
@@ -5853,10 +5747,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{250F6131-CF93-3347-A38E-D68F81AD74C7}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5940,7 +5834,36 @@
         <v>47</v>
       </c>
     </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5">
+        <v>15.39</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{0507654c-1543-47e1-81c5-300c2627be14}" enabled="1" method="Standard" siteId="{5a7cc8ab-a4dc-4f9b-bf60-66714049ad62}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>
--- a/Sax_details.xlsx
+++ b/Sax_details.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim\Documents\GitHub\MIDI-Wind-Controller\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://griffitheduau-my.sharepoint.com/personal/timothy_roberts_griffith_edu_au/Documents/Documents/GitHub/MIDI-Wind-Controller/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7219C43-6C99-4AA3-9CCA-F1088228A867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="246" documentId="13_ncr:1_{A7219C43-6C99-4AA3-9CCA-F1088228A867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9071BA51-C522-446D-8C08-A58DB70E0194}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{37DECD7E-2A26-408F-B389-C3EB14E31A56}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{37DECD7E-2A26-408F-B389-C3EB14E31A56}"/>
   </bookViews>
   <sheets>
     <sheet name="Leonardo" sheetId="1" r:id="rId1"/>
     <sheet name="Doppler" sheetId="2" r:id="rId2"/>
-    <sheet name="BOM" sheetId="3" r:id="rId3"/>
+    <sheet name="PicoSax" sheetId="4" r:id="rId3"/>
+    <sheet name="BOM" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="83">
   <si>
     <t>C#</t>
   </si>
@@ -250,6 +251,42 @@
   <si>
     <t>https://www.digikey.com.au/en/products/detail/nxp-usa-inc/MP3V5004GP/2186181</t>
   </si>
+  <si>
+    <t>Spr</t>
+  </si>
+  <si>
+    <t>Gs</t>
+  </si>
+  <si>
+    <t>8va</t>
+  </si>
+  <si>
+    <t>Dup</t>
+  </si>
+  <si>
+    <t>8vb</t>
+  </si>
+  <si>
+    <t>Ctrl</t>
+  </si>
+  <si>
+    <t>Octave Adjustments</t>
+  </si>
+  <si>
+    <t>8va+8vb</t>
+  </si>
+  <si>
+    <t>Alternate Fingering</t>
+  </si>
+  <si>
+    <t>Midi Note</t>
+  </si>
+  <si>
+    <t>G# fingerings</t>
+  </si>
+  <si>
+    <t>Note Byte Value</t>
+  </si>
 </sst>
 </file>
 
@@ -331,7 +368,767 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="86">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -448,7 +1245,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3764,7 +4561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2919528-146A-CE47-841B-7E3C7B7F9F62}">
   <dimension ref="A1:W50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
@@ -5701,42 +6498,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B40:E49">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="7" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="84" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:Q12 U3:U12">
-    <cfRule type="cellIs" dxfId="7" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="19" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="82" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:Q35">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="5" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="80" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40:H49">
-    <cfRule type="cellIs" dxfId="3" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="11" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="78" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J40:L49">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="76" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5746,10 +6543,1614 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD68562-CFA2-4449-8B4B-3672136A3745}">
+  <dimension ref="A1:W57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C59" sqref="C59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1">
+        <v>48</v>
+      </c>
+      <c r="D1" s="1">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1">
+        <v>46</v>
+      </c>
+      <c r="F1" s="1">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1">
+        <v>44</v>
+      </c>
+      <c r="H1" s="1">
+        <v>43</v>
+      </c>
+      <c r="I1" s="1">
+        <v>42</v>
+      </c>
+      <c r="J1" s="1">
+        <v>41</v>
+      </c>
+      <c r="K1" s="1">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1">
+        <v>39</v>
+      </c>
+      <c r="M1" s="1">
+        <v>38</v>
+      </c>
+      <c r="N1" s="1">
+        <v>37</v>
+      </c>
+      <c r="O1" s="1">
+        <v>36</v>
+      </c>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1</v>
+      </c>
+      <c r="M4" s="3">
+        <v>1</v>
+      </c>
+      <c r="N4" s="3">
+        <v>1</v>
+      </c>
+      <c r="O4" s="3">
+        <v>1</v>
+      </c>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1</v>
+      </c>
+      <c r="M5" s="3">
+        <v>1</v>
+      </c>
+      <c r="N5" s="3">
+        <v>1</v>
+      </c>
+      <c r="O5" s="3">
+        <v>1</v>
+      </c>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1</v>
+      </c>
+      <c r="O6" s="2">
+        <v>1</v>
+      </c>
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3">
+        <v>1</v>
+      </c>
+      <c r="O7" s="3"/>
+      <c r="T7" s="1"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1</v>
+      </c>
+      <c r="N10" s="2">
+        <v>1</v>
+      </c>
+      <c r="O10" s="2">
+        <v>1</v>
+      </c>
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3">
+        <v>1</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1</v>
+      </c>
+      <c r="N11" s="2">
+        <v>1</v>
+      </c>
+      <c r="O11" s="2">
+        <v>1</v>
+      </c>
+      <c r="T11" s="1"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="3">
+        <v>1</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1</v>
+      </c>
+      <c r="N12" s="2">
+        <v>1</v>
+      </c>
+      <c r="O12" s="2">
+        <v>1</v>
+      </c>
+      <c r="T12" s="1"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="3">
+        <v>1</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="T13" s="1"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2">
+        <v>1</v>
+      </c>
+      <c r="O14" s="2">
+        <v>1</v>
+      </c>
+      <c r="T14" s="1"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1">
+        <f>B3*1+B4*2+B5*4+B6*8+B7*16+B8*32+B9*64+B10*128+B11*256+B12*512+B13*1024+B14*2048</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" ref="C15:O15" si="0">C3*1+C4*2+C5*4+C6*8+C7*16+C8*32+C9*64+C10*128+C11*256+C12*512+C13*1024+C14*2048</f>
+        <v>4</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="0"/>
+        <v>142</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="0"/>
+        <v>398</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="0"/>
+        <v>1934</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" si="0"/>
+        <v>910</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" si="0"/>
+        <v>2974</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" si="0"/>
+        <v>2958</v>
+      </c>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20">
+        <v>-12</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21">
+        <v>24</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="1">
+        <v>48</v>
+      </c>
+      <c r="C26" s="1">
+        <v>46</v>
+      </c>
+      <c r="D26" s="1">
+        <v>50</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1">
+        <v>49</v>
+      </c>
+      <c r="G26" s="1">
+        <v>48</v>
+      </c>
+      <c r="H26" s="1">
+        <v>47</v>
+      </c>
+      <c r="I26" s="1">
+        <v>46</v>
+      </c>
+      <c r="J26" s="1">
+        <v>45</v>
+      </c>
+      <c r="K26" s="1">
+        <v>42</v>
+      </c>
+      <c r="L26" s="1">
+        <v>41</v>
+      </c>
+      <c r="M26" s="1">
+        <v>40</v>
+      </c>
+      <c r="N26" s="1">
+        <v>39</v>
+      </c>
+      <c r="O26" s="1">
+        <v>38</v>
+      </c>
+      <c r="P26" s="1">
+        <v>37</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="F29" s="2">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="2">
+        <v>1</v>
+      </c>
+      <c r="I29" s="2">
+        <v>1</v>
+      </c>
+      <c r="J29" s="3">
+        <v>1</v>
+      </c>
+      <c r="K29" s="3">
+        <v>1</v>
+      </c>
+      <c r="L29" s="3">
+        <v>1</v>
+      </c>
+      <c r="M29" s="3">
+        <v>1</v>
+      </c>
+      <c r="N29" s="3">
+        <v>1</v>
+      </c>
+      <c r="O29" s="3">
+        <v>1</v>
+      </c>
+      <c r="P29" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2">
+        <v>1</v>
+      </c>
+      <c r="J30" s="2">
+        <v>1</v>
+      </c>
+      <c r="K30" s="3">
+        <v>1</v>
+      </c>
+      <c r="L30" s="3">
+        <v>1</v>
+      </c>
+      <c r="M30" s="3">
+        <v>1</v>
+      </c>
+      <c r="N30" s="3">
+        <v>1</v>
+      </c>
+      <c r="O30" s="3">
+        <v>1</v>
+      </c>
+      <c r="P30" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2">
+        <v>1</v>
+      </c>
+      <c r="L31" s="2">
+        <v>1</v>
+      </c>
+      <c r="M31" s="2">
+        <v>1</v>
+      </c>
+      <c r="N31" s="2">
+        <v>1</v>
+      </c>
+      <c r="O31" s="2">
+        <v>1</v>
+      </c>
+      <c r="P31" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="F32" s="2">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2">
+        <v>1</v>
+      </c>
+      <c r="I32" s="2">
+        <v>1</v>
+      </c>
+      <c r="J32" s="2">
+        <v>1</v>
+      </c>
+      <c r="K32" s="2">
+        <v>1</v>
+      </c>
+      <c r="L32" s="3">
+        <v>1</v>
+      </c>
+      <c r="M32" s="3">
+        <v>1</v>
+      </c>
+      <c r="N32" s="3">
+        <v>1</v>
+      </c>
+      <c r="O32" s="3">
+        <v>1</v>
+      </c>
+      <c r="P32" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="F33" s="2">
+        <v>0</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="F34" s="2">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2">
+        <v>1</v>
+      </c>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="F35" s="2">
+        <v>0</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2">
+        <v>1</v>
+      </c>
+      <c r="M35" s="2">
+        <v>1</v>
+      </c>
+      <c r="N35" s="3">
+        <v>1</v>
+      </c>
+      <c r="O35" s="2">
+        <v>1</v>
+      </c>
+      <c r="P35" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="F36" s="2">
+        <v>0</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2">
+        <v>1</v>
+      </c>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2">
+        <v>1</v>
+      </c>
+      <c r="N36" s="3">
+        <v>1</v>
+      </c>
+      <c r="O36" s="2">
+        <v>1</v>
+      </c>
+      <c r="P36" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="F37" s="2">
+        <v>0</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="3">
+        <v>1</v>
+      </c>
+      <c r="O37" s="2">
+        <v>1</v>
+      </c>
+      <c r="P37" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="F38" s="2">
+        <v>0</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="3">
+        <v>1</v>
+      </c>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="1">
+        <f>B28*1+B29*2+B30*4+B31*8+B32*16+B33*32+B34*64+B35*128+B36*256+B37*512+B38*1024+B39*2048</f>
+        <v>66</v>
+      </c>
+      <c r="C40" s="1">
+        <f>C28*1+C29*2+C30*4+C31*8+C32*16+C33*32+C34*64+C35*128+C36*256+C37*512+C38*1024+C39*2048</f>
+        <v>130</v>
+      </c>
+      <c r="D40" s="1">
+        <f>D28*1+D29*2+D30*4+D31*8+D32*16+D33*32+D34*64+D35*128+D36*256+D37*512+D38*1024+D39*2048</f>
+        <v>1</v>
+      </c>
+      <c r="F40" s="1">
+        <f>F28*1+F29*2+F30*4+F31*8+F32*16+F33*32+F34*64+F35*128+F36*256+F37*512+F38*1024+F39*2048</f>
+        <v>16</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" ref="G40:Q40" si="1">G28*1+G29*2+G30*4+G31*8+G32*16+G33*32+G34*64+G35*128+G36*256+G37*512+G38*1024+G39*2048</f>
+        <v>20</v>
+      </c>
+      <c r="H40" s="1">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="I40" s="1">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="J40" s="1">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="K40" s="1">
+        <f t="shared" si="1"/>
+        <v>286</v>
+      </c>
+      <c r="L40" s="1">
+        <f t="shared" si="1"/>
+        <v>158</v>
+      </c>
+      <c r="M40" s="1">
+        <f t="shared" si="1"/>
+        <v>414</v>
+      </c>
+      <c r="N40" s="1">
+        <f t="shared" si="1"/>
+        <v>1950</v>
+      </c>
+      <c r="O40" s="1">
+        <f t="shared" si="1"/>
+        <v>926</v>
+      </c>
+      <c r="P40" s="1">
+        <f t="shared" si="1"/>
+        <v>2974</v>
+      </c>
+      <c r="Q40" s="1">
+        <f t="shared" si="1"/>
+        <v>2974</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
+        <v>1</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49" s="2">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" s="2">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="G50" s="3">
+        <v>1</v>
+      </c>
+      <c r="H50" s="3">
+        <v>0</v>
+      </c>
+      <c r="I50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="2">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="G51" s="2">
+        <v>0</v>
+      </c>
+      <c r="H51" s="2">
+        <v>0</v>
+      </c>
+      <c r="I51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="2">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="G52" s="2">
+        <v>0</v>
+      </c>
+      <c r="H52" s="2">
+        <v>0</v>
+      </c>
+      <c r="I52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" s="2">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="G53" s="2">
+        <v>0</v>
+      </c>
+      <c r="H53" s="2">
+        <v>0</v>
+      </c>
+      <c r="I53" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0</v>
+      </c>
+      <c r="I54" s="1">
+        <v>1</v>
+      </c>
+      <c r="M54" s="1"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="2">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="G55" s="2">
+        <v>0</v>
+      </c>
+      <c r="H55" s="2">
+        <v>0</v>
+      </c>
+      <c r="I55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="G56" s="2">
+        <v>1</v>
+      </c>
+      <c r="H56" s="2">
+        <v>1</v>
+      </c>
+      <c r="I56" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B57" s="1">
+        <f>B44*1+B45*2+B46*4+B47*8+B48*16+B49*32+B50*64+B51*128+B52*256+B53*512+B54*1024+B55*2048+B56*4096</f>
+        <v>4128</v>
+      </c>
+      <c r="C57" s="1">
+        <f t="shared" ref="C57:J57" si="2">C44*1+C45*2+C46*4+C47*8+C48*16+C49*32+C50*64+C51*128+C52*256+C53*512+C54*1024+C55*2048+C56*4096</f>
+        <v>4096</v>
+      </c>
+      <c r="D57" s="1">
+        <f t="shared" si="2"/>
+        <v>4128</v>
+      </c>
+      <c r="E57" s="1">
+        <f t="shared" si="2"/>
+        <v>6144</v>
+      </c>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1">
+        <f>G44*1+G45*2+G46*4+G47*8+G48*16+G49*32+G50*64+G51*128+G52*256+G53*512+G54*1024+G55*2048+G56*4096</f>
+        <v>4160</v>
+      </c>
+      <c r="H57" s="1">
+        <f t="shared" ref="H57" si="3">H44*1+H45*2+H46*4+H47*8+H48*16+H49*32+H50*64+H51*128+H52*256+H53*512+H54*1024+H55*2048+H56*4096</f>
+        <v>4100</v>
+      </c>
+      <c r="I57" s="1">
+        <f t="shared" ref="I57" si="4">I44*1+I45*2+I46*4+I47*8+I48*16+I49*32+I50*64+I51*128+I52*256+I53*512+I54*1024+I55*2048+I56*4096</f>
+        <v>5120</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B3:O14 F28:Q39">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:D39">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44:E56">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G44:I56">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{250F6131-CF93-3347-A38E-D68F81AD74C7}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>

--- a/Sax_details.xlsx
+++ b/Sax_details.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://griffitheduau-my.sharepoint.com/personal/timothy_roberts_griffith_edu_au/Documents/Documents/GitHub/MIDI-Wind-Controller/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim\Documents\GitHub\MIDI-Wind-Controller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="246" documentId="13_ncr:1_{A7219C43-6C99-4AA3-9CCA-F1088228A867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9071BA51-C522-446D-8C08-A58DB70E0194}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3B971E-7F4B-4BD6-BBAF-50129B65F2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{37DECD7E-2A26-408F-B389-C3EB14E31A56}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{37DECD7E-2A26-408F-B389-C3EB14E31A56}"/>
   </bookViews>
   <sheets>
     <sheet name="Leonardo" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="85">
   <si>
     <t>C#</t>
   </si>
@@ -273,9 +273,6 @@
     <t>Octave Adjustments</t>
   </si>
   <si>
-    <t>8va+8vb</t>
-  </si>
-  <si>
     <t>Alternate Fingering</t>
   </si>
   <si>
@@ -286,6 +283,15 @@
   </si>
   <si>
     <t>Note Byte Value</t>
+  </si>
+  <si>
+    <t>GPIO</t>
+  </si>
+  <si>
+    <t>Can't Do either of these</t>
+  </si>
+  <si>
+    <t>16va</t>
   </si>
 </sst>
 </file>
@@ -356,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -364,691 +370,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="86">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1245,7 +574,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6498,42 +5827,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B40:E49">
-    <cfRule type="cellIs" dxfId="85" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:Q12 U3:U12">
-    <cfRule type="cellIs" dxfId="83" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="19" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:Q35">
-    <cfRule type="cellIs" dxfId="81" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40:H49">
-    <cfRule type="cellIs" dxfId="79" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J40:L49">
-    <cfRule type="cellIs" dxfId="77" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6547,10 +5876,10 @@
   <dimension ref="A1:W57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C59" sqref="C59"/>
+      <selection pane="bottomRight" activeCell="B21" sqref="B21:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7095,61 +6424,86 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B19">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>75</v>
       </c>
       <c r="B20">
-        <v>-12</v>
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>78</v>
-      </c>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B21">
-        <v>24</v>
+        <f>B19+B20*2</f>
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ref="C21:D21" si="1">C19+C20*2</f>
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>76</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="R25" s="7"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>79</v>
-      </c>
-      <c r="F25" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>80</v>
       </c>
       <c r="B26" s="1">
         <v>48</v>
@@ -7174,31 +6528,34 @@
         <v>46</v>
       </c>
       <c r="J26" s="1">
+        <v>46</v>
+      </c>
+      <c r="K26" s="1">
         <v>45</v>
       </c>
-      <c r="K26" s="1">
+      <c r="L26" s="1">
         <v>42</v>
       </c>
-      <c r="L26" s="1">
+      <c r="M26" s="1">
         <v>41</v>
       </c>
-      <c r="M26" s="1">
+      <c r="N26" s="1">
         <v>40</v>
       </c>
-      <c r="N26" s="1">
+      <c r="O26" s="1">
         <v>39</v>
       </c>
-      <c r="O26" s="1">
+      <c r="P26" s="1">
         <v>38</v>
       </c>
-      <c r="P26" s="1">
+      <c r="Q26" s="1">
         <v>37</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="R26" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -7225,31 +6582,34 @@
         <v>4</v>
       </c>
       <c r="J27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K27" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="L27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="M27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="N27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N27" s="1" t="s">
+      <c r="O27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O27" s="1" t="s">
+      <c r="P27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P27" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="Q27" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>74</v>
       </c>
@@ -7264,7 +6624,6 @@
       <c r="G28" s="2"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
@@ -7272,8 +6631,9 @@
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R28" s="3"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>2</v>
       </c>
@@ -7294,7 +6654,7 @@
       <c r="I29" s="2">
         <v>1</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="2">
         <v>1</v>
       </c>
       <c r="K29" s="3">
@@ -7318,8 +6678,11 @@
       <c r="Q29" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>3</v>
       </c>
@@ -7336,10 +6699,7 @@
       <c r="I30" s="2">
         <v>1</v>
       </c>
-      <c r="J30" s="2">
-        <v>1</v>
-      </c>
-      <c r="K30" s="3">
+      <c r="K30" s="2">
         <v>1</v>
       </c>
       <c r="L30" s="3">
@@ -7360,8 +6720,11 @@
       <c r="Q30" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
@@ -7374,10 +6737,7 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2">
-        <v>1</v>
-      </c>
+      <c r="K31" s="2"/>
       <c r="L31" s="2">
         <v>1</v>
       </c>
@@ -7396,8 +6756,11 @@
       <c r="Q31" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>72</v>
       </c>
@@ -7422,7 +6785,7 @@
       <c r="K32" s="2">
         <v>1</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="2">
         <v>1</v>
       </c>
       <c r="M32" s="3">
@@ -7440,8 +6803,11 @@
       <c r="Q32" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>71</v>
       </c>
@@ -7454,16 +6820,16 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="3"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="2"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R33" s="3"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>24</v>
       </c>
@@ -7480,16 +6846,19 @@
       <c r="I34" s="2">
         <v>1</v>
       </c>
-      <c r="J34" s="2"/>
+      <c r="J34">
+        <v>1</v>
+      </c>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
-      <c r="N34" s="3"/>
+      <c r="N34" s="2"/>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R34" s="3"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>7</v>
       </c>
@@ -7504,18 +6873,15 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
       <c r="K35" s="2"/>
-      <c r="L35" s="2">
-        <v>1</v>
-      </c>
+      <c r="L35" s="2"/>
       <c r="M35" s="2">
         <v>1</v>
       </c>
-      <c r="N35" s="3">
-        <v>1</v>
-      </c>
-      <c r="O35" s="2">
+      <c r="N35" s="2">
+        <v>1</v>
+      </c>
+      <c r="O35" s="3">
         <v>1</v>
       </c>
       <c r="P35" s="2">
@@ -7524,8 +6890,11 @@
       <c r="Q35" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>9</v>
       </c>
@@ -7538,18 +6907,15 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2">
-        <v>1</v>
-      </c>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2">
-        <v>1</v>
-      </c>
-      <c r="N36" s="3">
-        <v>1</v>
-      </c>
-      <c r="O36" s="2">
+      <c r="K36" s="2"/>
+      <c r="L36" s="2">
+        <v>1</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2">
+        <v>1</v>
+      </c>
+      <c r="O36" s="3">
         <v>1</v>
       </c>
       <c r="P36" s="2">
@@ -7558,8 +6924,11 @@
       <c r="Q36" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>11</v>
       </c>
@@ -7572,14 +6941,11 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
-      <c r="N37" s="3">
-        <v>1</v>
-      </c>
-      <c r="O37" s="2">
+      <c r="N37" s="2"/>
+      <c r="O37" s="3">
         <v>1</v>
       </c>
       <c r="P37" s="2">
@@ -7588,8 +6954,11 @@
       <c r="Q37" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>68</v>
       </c>
@@ -7602,18 +6971,18 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
-      <c r="N38" s="3">
-        <v>1</v>
-      </c>
-      <c r="O38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="3">
+        <v>1</v>
+      </c>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R38" s="2"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>1</v>
       </c>
@@ -7623,22 +6992,22 @@
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2">
-        <v>1</v>
-      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="2"/>
       <c r="Q39" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B40" s="1">
         <f>B28*1+B29*2+B30*4+B31*8+B32*16+B33*32+B34*64+B35*128+B36*256+B37*512+B38*1024+B39*2048</f>
@@ -7657,59 +7026,63 @@
         <v>16</v>
       </c>
       <c r="G40" s="1">
-        <f t="shared" ref="G40:Q40" si="1">G28*1+G29*2+G30*4+G31*8+G32*16+G33*32+G34*64+G35*128+G36*256+G37*512+G38*1024+G39*2048</f>
+        <f t="shared" ref="G40:Q40" si="2">G28*1+G29*2+G30*4+G31*8+G32*16+G33*32+G34*64+G35*128+G36*256+G37*512+G38*1024+G39*2048</f>
         <v>20</v>
       </c>
       <c r="H40" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="I40" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>86</v>
       </c>
       <c r="J40" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="K40" s="1">
+        <f>K28*1+K29*2+K30*4+K31*8+K32*16+K33*32+K34*64+K35*128+K36*256+K37*512+K38*1024+K39*2048</f>
         <v>22</v>
       </c>
-      <c r="K40" s="1">
-        <f t="shared" si="1"/>
+      <c r="L40" s="1">
+        <f>L28*1+L29*2+L30*4+L31*8+L32*16+L33*32+L34*64+L35*128+L36*256+L37*512+L38*1024+L39*2048</f>
         <v>286</v>
       </c>
-      <c r="L40" s="1">
-        <f t="shared" si="1"/>
+      <c r="M40" s="1">
+        <f>M28*1+M29*2+M30*4+M31*8+M32*16+M33*32+M34*64+M35*128+M36*256+M37*512+M38*1024+M39*2048</f>
         <v>158</v>
       </c>
-      <c r="M40" s="1">
-        <f t="shared" si="1"/>
+      <c r="N40" s="1">
+        <f>N28*1+N29*2+N30*4+N31*8+N32*16+N33*32+N34*64+N35*128+N36*256+N37*512+N38*1024+N39*2048</f>
         <v>414</v>
       </c>
-      <c r="N40" s="1">
-        <f t="shared" si="1"/>
+      <c r="O40" s="1">
+        <f>O28*1+O29*2+O30*4+O31*8+O32*16+O33*32+O34*64+O35*128+O36*256+O37*512+O38*1024+O39*2048</f>
         <v>1950</v>
       </c>
-      <c r="O40" s="1">
-        <f t="shared" si="1"/>
+      <c r="P40" s="1">
+        <f>P28*1+P29*2+P30*4+P31*8+P32*16+P33*32+P34*64+P35*128+P36*256+P37*512+P38*1024+P39*2048</f>
         <v>926</v>
       </c>
-      <c r="P40" s="1">
-        <f t="shared" si="1"/>
+      <c r="Q40" s="1">
+        <f>Q28*1+Q29*2+Q30*4+Q31*8+Q32*16+Q33*32+Q34*64+Q35*128+Q36*256+Q37*512+Q38*1024+Q39*2048</f>
         <v>2974</v>
       </c>
-      <c r="Q40" s="1">
-        <f t="shared" si="1"/>
+      <c r="R40" s="1">
+        <f>R28*1+R29*2+R30*4+R31*8+R32*16+R33*32+R34*64+R35*128+R36*256+R37*512+R38*1024+R39*2048</f>
         <v>2974</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>13</v>
       </c>
@@ -7734,8 +7107,11 @@
       <c r="I43" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>74</v>
       </c>
@@ -7760,8 +7136,11 @@
       <c r="I44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L44">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>2</v>
       </c>
@@ -7786,8 +7165,11 @@
       <c r="I45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L45" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>3</v>
       </c>
@@ -7812,8 +7194,11 @@
       <c r="I46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L46" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>6</v>
       </c>
@@ -7838,8 +7223,11 @@
       <c r="I47" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L47" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>72</v>
       </c>
@@ -7863,6 +7251,9 @@
       </c>
       <c r="I48" s="3">
         <v>0</v>
+      </c>
+      <c r="L48" s="3">
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -7890,6 +7281,9 @@
       <c r="I49" s="3">
         <v>0</v>
       </c>
+      <c r="L49" s="3">
+        <v>8</v>
+      </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
@@ -7916,6 +7310,9 @@
       <c r="I50" s="3">
         <v>0</v>
       </c>
+      <c r="L50" s="3">
+        <v>15</v>
+      </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
@@ -7942,6 +7339,9 @@
       <c r="I51" s="2">
         <v>0</v>
       </c>
+      <c r="L51" s="3">
+        <v>17</v>
+      </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -7968,6 +7368,9 @@
       <c r="I52" s="2">
         <v>0</v>
       </c>
+      <c r="L52" s="3">
+        <v>18</v>
+      </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
@@ -7994,6 +7397,9 @@
       <c r="I53" s="2">
         <v>0</v>
       </c>
+      <c r="L53" s="3">
+        <v>19</v>
+      </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
@@ -8020,6 +7426,9 @@
       <c r="I54" s="1">
         <v>1</v>
       </c>
+      <c r="L54" s="3">
+        <v>20</v>
+      </c>
       <c r="M54" s="1"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -8046,6 +7455,9 @@
       </c>
       <c r="I55" s="2">
         <v>0</v>
+      </c>
+      <c r="L55" s="3">
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -8073,25 +7485,28 @@
       <c r="I56" s="2">
         <v>1</v>
       </c>
+      <c r="L56" s="3">
+        <v>22</v>
+      </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B57" s="1">
         <f>B44*1+B45*2+B46*4+B47*8+B48*16+B49*32+B50*64+B51*128+B52*256+B53*512+B54*1024+B55*2048+B56*4096</f>
         <v>4128</v>
       </c>
       <c r="C57" s="1">
-        <f t="shared" ref="C57:J57" si="2">C44*1+C45*2+C46*4+C47*8+C48*16+C49*32+C50*64+C51*128+C52*256+C53*512+C54*1024+C55*2048+C56*4096</f>
+        <f t="shared" ref="C57:E57" si="3">C44*1+C45*2+C46*4+C47*8+C48*16+C49*32+C50*64+C51*128+C52*256+C53*512+C54*1024+C55*2048+C56*4096</f>
         <v>4096</v>
       </c>
       <c r="D57" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4128</v>
       </c>
       <c r="E57" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6144</v>
       </c>
       <c r="F57" s="1"/>
@@ -8100,44 +7515,47 @@
         <v>4160</v>
       </c>
       <c r="H57" s="1">
-        <f t="shared" ref="H57" si="3">H44*1+H45*2+H46*4+H47*8+H48*16+H49*32+H50*64+H51*128+H52*256+H53*512+H54*1024+H55*2048+H56*4096</f>
+        <f t="shared" ref="H57" si="4">H44*1+H45*2+H46*4+H47*8+H48*16+H49*32+H50*64+H51*128+H52*256+H53*512+H54*1024+H55*2048+H56*4096</f>
         <v>4100</v>
       </c>
       <c r="I57" s="1">
-        <f t="shared" ref="I57" si="4">I44*1+I45*2+I46*4+I47*8+I48*16+I49*32+I50*64+I51*128+I52*256+I53*512+I54*1024+I55*2048+I56*4096</f>
+        <f t="shared" ref="I57" si="5">I44*1+I45*2+I46*4+I47*8+I48*16+I49*32+I50*64+I51*128+I52*256+I53*512+I54*1024+I55*2048+I56*4096</f>
         <v>5120</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B3:O14 F28:Q39">
-    <cfRule type="cellIs" dxfId="15" priority="9" operator="lessThan">
+  <mergeCells count="1">
+    <mergeCell ref="Q25:R25"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B28:D39 F28:I39 K28:R39 J29 J32">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28:D39">
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:E56">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:O14 L45:L56">
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44:I56">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
